--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DataSci\P2_CienciaDados_2019.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graduação\2° Semestre\Ciência dos Dados\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DBC44-FD58-412D-8618-1740F93D7595}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979D0AE-5511-44A5-A0DB-D93CFA22E5B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4442,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7869,6 +7869,9 @@
       <c r="E151" s="10" t="s">
         <v>170</v>
       </c>
+      <c r="F151" s="8">
+        <v>1</v>
+      </c>
       <c r="G151" s="6" t="s">
         <v>409</v>
       </c>
@@ -7892,6 +7895,9 @@
       <c r="E152" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="F152" s="8">
+        <v>2</v>
+      </c>
       <c r="G152" s="6" t="s">
         <v>410</v>
       </c>
@@ -7915,6 +7921,9 @@
       <c r="E153" s="10" t="s">
         <v>172</v>
       </c>
+      <c r="F153" s="8">
+        <v>3</v>
+      </c>
       <c r="H153" s="6" t="s">
         <v>637</v>
       </c>
@@ -7934,6 +7943,9 @@
       </c>
       <c r="E154" s="10" t="s">
         <v>173</v>
+      </c>
+      <c r="F154" s="8">
+        <v>3</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>411</v>
@@ -7958,6 +7970,9 @@
       <c r="E155" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="F155" s="8">
+        <v>2</v>
+      </c>
       <c r="H155" s="6" t="s">
         <v>639</v>
       </c>
@@ -7978,6 +7993,9 @@
       <c r="E156" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="F156" s="8">
+        <v>2</v>
+      </c>
       <c r="G156" s="6" t="s">
         <v>412</v>
       </c>
@@ -8001,6 +8019,9 @@
       <c r="E157" s="10" t="s">
         <v>176</v>
       </c>
+      <c r="F157" s="8">
+        <v>1</v>
+      </c>
       <c r="G157" s="6" t="s">
         <v>413</v>
       </c>
@@ -8024,6 +8045,9 @@
       <c r="E158" s="10" t="s">
         <v>177</v>
       </c>
+      <c r="F158" s="8">
+        <v>2</v>
+      </c>
       <c r="G158" s="6" t="s">
         <v>414</v>
       </c>
@@ -8047,6 +8071,9 @@
       <c r="E159" s="10" t="s">
         <v>178</v>
       </c>
+      <c r="F159" s="8">
+        <v>2</v>
+      </c>
       <c r="G159" s="6" t="s">
         <v>387</v>
       </c>
@@ -8070,6 +8097,9 @@
       <c r="E160" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="F160" s="8">
+        <v>3</v>
+      </c>
       <c r="G160" s="6" t="s">
         <v>415</v>
       </c>
@@ -8093,6 +8123,9 @@
       <c r="E161" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="F161" s="8">
+        <v>2</v>
+      </c>
       <c r="H161" s="6" t="s">
         <v>645</v>
       </c>
@@ -8113,6 +8146,9 @@
       <c r="E162" s="10" t="s">
         <v>181</v>
       </c>
+      <c r="F162" s="8">
+        <v>0</v>
+      </c>
       <c r="H162" s="6" t="s">
         <v>646</v>
       </c>
@@ -8132,6 +8168,9 @@
       </c>
       <c r="E163" s="10" t="s">
         <v>182</v>
+      </c>
+      <c r="F163" s="8">
+        <v>0</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>647</v>
@@ -8153,6 +8192,9 @@
       <c r="E164" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="F164" s="8">
+        <v>3</v>
+      </c>
       <c r="G164" s="6" t="s">
         <v>416</v>
       </c>
@@ -8176,6 +8218,9 @@
       <c r="E165" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="F165" s="8">
+        <v>2</v>
+      </c>
       <c r="G165" s="6" t="s">
         <v>417</v>
       </c>
@@ -8199,6 +8244,9 @@
       <c r="E166" s="10" t="s">
         <v>185</v>
       </c>
+      <c r="F166" s="8">
+        <v>0</v>
+      </c>
       <c r="G166" s="6" t="s">
         <v>323</v>
       </c>
@@ -10535,6 +10583,9 @@
       <c r="E272" s="10" t="s">
         <v>291</v>
       </c>
+      <c r="F272" s="8">
+        <v>2</v>
+      </c>
       <c r="G272" s="6" t="s">
         <v>348</v>
       </c>
@@ -10558,6 +10609,9 @@
       <c r="E273" s="10" t="s">
         <v>292</v>
       </c>
+      <c r="F273" s="8">
+        <v>1</v>
+      </c>
       <c r="G273" s="6" t="s">
         <v>471</v>
       </c>
@@ -10580,6 +10634,9 @@
       </c>
       <c r="E274" s="10" t="s">
         <v>293</v>
+      </c>
+      <c r="F274" s="8">
+        <v>1</v>
       </c>
       <c r="G274" s="6" t="s">
         <v>472</v>
@@ -10604,6 +10661,9 @@
       <c r="E275" s="10" t="s">
         <v>294</v>
       </c>
+      <c r="F275" s="8">
+        <v>2</v>
+      </c>
       <c r="G275" s="6" t="s">
         <v>473</v>
       </c>
@@ -10627,6 +10687,9 @@
       <c r="E276" s="10" t="s">
         <v>295</v>
       </c>
+      <c r="F276" s="8">
+        <v>2</v>
+      </c>
       <c r="G276" s="6" t="s">
         <v>474</v>
       </c>
@@ -10650,6 +10713,9 @@
       <c r="E277" s="10" t="s">
         <v>296</v>
       </c>
+      <c r="F277" s="8">
+        <v>2</v>
+      </c>
       <c r="G277" s="6" t="s">
         <v>475</v>
       </c>
@@ -10672,6 +10738,9 @@
       </c>
       <c r="E278" s="10" t="s">
         <v>297</v>
+      </c>
+      <c r="F278" s="8">
+        <v>1</v>
       </c>
       <c r="G278" s="6" t="s">
         <v>377</v>
@@ -10696,6 +10765,9 @@
       <c r="E279" s="10" t="s">
         <v>298</v>
       </c>
+      <c r="F279" s="8">
+        <v>1</v>
+      </c>
       <c r="G279" s="6" t="s">
         <v>476</v>
       </c>
@@ -10718,6 +10790,9 @@
       </c>
       <c r="E280" s="10" t="s">
         <v>299</v>
+      </c>
+      <c r="F280" s="8">
+        <v>1</v>
       </c>
       <c r="G280" s="6" t="s">
         <v>349</v>
@@ -10742,6 +10817,9 @@
       <c r="E281" s="10" t="s">
         <v>300</v>
       </c>
+      <c r="F281" s="8">
+        <v>0</v>
+      </c>
       <c r="G281" s="6" t="s">
         <v>477</v>
       </c>
@@ -10765,6 +10843,9 @@
       <c r="E282" s="10" t="s">
         <v>301</v>
       </c>
+      <c r="F282" s="8">
+        <v>1</v>
+      </c>
       <c r="G282" s="6" t="s">
         <v>478</v>
       </c>
@@ -10787,6 +10868,9 @@
       </c>
       <c r="E283" s="10" t="s">
         <v>302</v>
+      </c>
+      <c r="F283" s="8">
+        <v>2</v>
       </c>
       <c r="G283" s="6" t="s">
         <v>479</v>
@@ -10811,6 +10895,9 @@
       <c r="E284" s="10" t="s">
         <v>303</v>
       </c>
+      <c r="F284" s="8">
+        <v>2</v>
+      </c>
       <c r="H284" s="6" t="s">
         <v>762</v>
       </c>
@@ -10831,6 +10918,9 @@
       <c r="E285" s="10" t="s">
         <v>304</v>
       </c>
+      <c r="F285" s="8">
+        <v>2</v>
+      </c>
       <c r="G285" s="6" t="s">
         <v>349</v>
       </c>
@@ -10853,6 +10943,9 @@
       </c>
       <c r="E286" s="10" t="s">
         <v>305</v>
+      </c>
+      <c r="F286" s="8">
+        <v>1</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>480</v>
@@ -10877,6 +10970,9 @@
       <c r="E287" s="10" t="s">
         <v>306</v>
       </c>
+      <c r="F287" s="8">
+        <v>1</v>
+      </c>
       <c r="G287" s="6" t="s">
         <v>401</v>
       </c>
@@ -10900,6 +10996,9 @@
       <c r="E288" s="10" t="s">
         <v>307</v>
       </c>
+      <c r="F288" s="8">
+        <v>1</v>
+      </c>
       <c r="G288" s="6" t="s">
         <v>349</v>
       </c>
@@ -10923,6 +11022,9 @@
       <c r="E289" s="10" t="s">
         <v>308</v>
       </c>
+      <c r="F289" s="8">
+        <v>1</v>
+      </c>
       <c r="G289" s="6" t="s">
         <v>481</v>
       </c>
@@ -10945,6 +11047,9 @@
       </c>
       <c r="E290" s="10" t="s">
         <v>309</v>
+      </c>
+      <c r="F290" s="8">
+        <v>2</v>
       </c>
       <c r="G290" s="6" t="s">
         <v>482</v>
@@ -10969,6 +11074,9 @@
       <c r="E291" s="10" t="s">
         <v>310</v>
       </c>
+      <c r="F291" s="8">
+        <v>2</v>
+      </c>
       <c r="G291" s="6" t="s">
         <v>483</v>
       </c>
@@ -10992,6 +11100,9 @@
       <c r="E292" s="10" t="s">
         <v>311</v>
       </c>
+      <c r="F292" s="8">
+        <v>1</v>
+      </c>
       <c r="G292" s="6" t="s">
         <v>323</v>
       </c>
@@ -11015,6 +11126,9 @@
       <c r="E293" s="10" t="s">
         <v>312</v>
       </c>
+      <c r="F293" s="8">
+        <v>2</v>
+      </c>
       <c r="H293" s="6" t="s">
         <v>770</v>
       </c>
@@ -11035,6 +11149,9 @@
       <c r="E294" s="10" t="s">
         <v>313</v>
       </c>
+      <c r="F294" s="8">
+        <v>2</v>
+      </c>
       <c r="H294" s="6" t="s">
         <v>771</v>
       </c>
@@ -11054,6 +11171,9 @@
       </c>
       <c r="E295" s="10" t="s">
         <v>314</v>
+      </c>
+      <c r="F295" s="8">
+        <v>2</v>
       </c>
       <c r="G295" s="6" t="s">
         <v>484</v>
@@ -11078,6 +11198,9 @@
       <c r="E296" s="10" t="s">
         <v>315</v>
       </c>
+      <c r="F296" s="8">
+        <v>1</v>
+      </c>
       <c r="H296" s="6" t="s">
         <v>773</v>
       </c>
@@ -11098,6 +11221,9 @@
       <c r="E297" s="10" t="s">
         <v>316</v>
       </c>
+      <c r="F297" s="8">
+        <v>1</v>
+      </c>
       <c r="H297" s="6" t="s">
         <v>774</v>
       </c>
@@ -11117,6 +11243,9 @@
       </c>
       <c r="E298" s="10" t="s">
         <v>317</v>
+      </c>
+      <c r="F298" s="8">
+        <v>1</v>
       </c>
       <c r="G298" s="6" t="s">
         <v>485</v>
@@ -11141,6 +11270,9 @@
       <c r="E299" s="10" t="s">
         <v>318</v>
       </c>
+      <c r="F299" s="8">
+        <v>0</v>
+      </c>
       <c r="G299" s="6" t="s">
         <v>365</v>
       </c>
@@ -11164,6 +11296,9 @@
       <c r="E300" s="10" t="s">
         <v>319</v>
       </c>
+      <c r="F300" s="8">
+        <v>1</v>
+      </c>
       <c r="G300" s="6" t="s">
         <v>394</v>
       </c>
@@ -11186,6 +11321,9 @@
       </c>
       <c r="E301" s="10" t="s">
         <v>320</v>
+      </c>
+      <c r="F301" s="8">
+        <v>2</v>
       </c>
       <c r="H301" s="6" t="s">
         <v>778</v>

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DataSci\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DBC44-FD58-412D-8618-1740F93D7595}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C6C97-ED1E-4371-B41F-35CF202005D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4070,7 +4070,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4100,6 +4100,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4442,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,7 +4632,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>325</v>
@@ -4681,7 +4684,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>327</v>
@@ -4707,7 +4710,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>328</v>
@@ -4804,10 +4807,10 @@
       <c r="D14" s="7">
         <v>43718.913541666669</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -4983,7 +4986,9 @@
       <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>336</v>
       </c>
@@ -5006,6 +5011,9 @@
       </c>
       <c r="E22" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>337</v>
@@ -5030,6 +5038,9 @@
       <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>335</v>
       </c>
@@ -5053,6 +5064,9 @@
       <c r="E24" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
       <c r="H24" s="6" t="s">
         <v>508</v>
       </c>
@@ -5073,6 +5087,9 @@
       <c r="E25" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>509</v>
       </c>
@@ -5093,6 +5110,9 @@
       <c r="E26" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
       <c r="G26" s="6" t="s">
         <v>338</v>
       </c>
@@ -5116,6 +5136,9 @@
       <c r="E27" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
       <c r="G27" s="6" t="s">
         <v>339</v>
       </c>
@@ -5139,6 +5162,9 @@
       <c r="E28" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>340</v>
       </c>
@@ -5162,6 +5188,9 @@
       <c r="E29" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
       <c r="G29" s="6" t="s">
         <v>341</v>
       </c>
@@ -5185,6 +5214,9 @@
       <c r="E30" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
       <c r="G30" s="6" t="s">
         <v>323</v>
       </c>
@@ -5207,6 +5239,9 @@
       </c>
       <c r="E31" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>515</v>
@@ -5228,6 +5263,9 @@
       <c r="E32" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
       <c r="G32" s="6" t="s">
         <v>323</v>
       </c>
@@ -5251,6 +5289,9 @@
       <c r="E33" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>342</v>
       </c>
@@ -5273,6 +5314,9 @@
       </c>
       <c r="E34" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>343</v>
@@ -5297,6 +5341,9 @@
       <c r="E35" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
       <c r="G35" s="6" t="s">
         <v>344</v>
       </c>
@@ -5320,6 +5367,9 @@
       <c r="E36" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
       <c r="G36" s="6" t="s">
         <v>323</v>
       </c>
@@ -5343,6 +5393,9 @@
       <c r="E37" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>521</v>
       </c>
@@ -5363,6 +5416,9 @@
       <c r="E38" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
       <c r="G38" s="6" t="s">
         <v>345</v>
       </c>
@@ -5386,6 +5442,9 @@
       <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
       <c r="G39" s="6" t="s">
         <v>324</v>
       </c>
@@ -5409,6 +5468,9 @@
       <c r="E40" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
       <c r="G40" s="6" t="s">
         <v>346</v>
       </c>
@@ -5432,6 +5494,9 @@
       <c r="E41" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
       <c r="G41" s="6" t="s">
         <v>347</v>
       </c>
@@ -5455,6 +5520,9 @@
       <c r="E42" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
       <c r="G42" s="6" t="s">
         <v>348</v>
       </c>
@@ -5478,6 +5546,9 @@
       <c r="E43" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
       <c r="G43" s="6" t="s">
         <v>344</v>
       </c>
@@ -5500,6 +5571,9 @@
       </c>
       <c r="E44" s="10" t="s">
         <v>63</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>349</v>
@@ -11193,6 +11267,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11200,7 +11275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graduação\2° Semestre\Ciência dos Dados\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979D0AE-5511-44A5-A0DB-D93CFA22E5B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8049CAA0-6327-4C3D-8C82-CFE8803B55B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4007,7 +4007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4029,6 +4029,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4070,7 +4078,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4098,8 +4106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4442,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="B110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,7 +4565,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>323</v>
@@ -4629,7 +4640,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>325</v>
@@ -4681,7 +4692,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>327</v>
@@ -4707,7 +4718,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>328</v>
@@ -4733,7 +4744,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>495</v>
@@ -4756,7 +4767,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>329</v>
@@ -4808,7 +4819,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>498</v>
@@ -4831,7 +4842,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>499</v>
@@ -4854,7 +4865,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>331</v>
@@ -4906,7 +4917,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>333</v>
@@ -4958,7 +4969,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>335</v>
@@ -4983,7 +4994,9 @@
       <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>336</v>
       </c>
@@ -5006,6 +5019,9 @@
       </c>
       <c r="E22" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>337</v>
@@ -5030,6 +5046,9 @@
       <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>335</v>
       </c>
@@ -5053,6 +5072,9 @@
       <c r="E24" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
       <c r="H24" s="6" t="s">
         <v>508</v>
       </c>
@@ -5073,6 +5095,9 @@
       <c r="E25" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>509</v>
       </c>
@@ -5093,6 +5118,9 @@
       <c r="E26" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
       <c r="G26" s="6" t="s">
         <v>338</v>
       </c>
@@ -5116,6 +5144,9 @@
       <c r="E27" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
       <c r="G27" s="6" t="s">
         <v>339</v>
       </c>
@@ -5139,6 +5170,9 @@
       <c r="E28" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>340</v>
       </c>
@@ -5162,6 +5196,9 @@
       <c r="E29" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
       <c r="G29" s="6" t="s">
         <v>341</v>
       </c>
@@ -5185,6 +5222,9 @@
       <c r="E30" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
       <c r="G30" s="6" t="s">
         <v>323</v>
       </c>
@@ -5208,6 +5248,9 @@
       <c r="E31" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>515</v>
       </c>
@@ -5228,6 +5271,9 @@
       <c r="E32" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
       <c r="G32" s="6" t="s">
         <v>323</v>
       </c>
@@ -5251,6 +5297,9 @@
       <c r="E33" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>342</v>
       </c>
@@ -5273,6 +5322,9 @@
       </c>
       <c r="E34" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>343</v>
@@ -5297,6 +5349,9 @@
       <c r="E35" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
       <c r="G35" s="6" t="s">
         <v>344</v>
       </c>
@@ -5320,6 +5375,9 @@
       <c r="E36" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
       <c r="G36" s="6" t="s">
         <v>323</v>
       </c>
@@ -5342,6 +5400,9 @@
       </c>
       <c r="E37" s="10" t="s">
         <v>56</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>521</v>
@@ -5363,6 +5424,9 @@
       <c r="E38" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
       <c r="G38" s="6" t="s">
         <v>345</v>
       </c>
@@ -5386,6 +5450,9 @@
       <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
       <c r="G39" s="6" t="s">
         <v>324</v>
       </c>
@@ -5409,6 +5476,9 @@
       <c r="E40" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
       <c r="G40" s="6" t="s">
         <v>346</v>
       </c>
@@ -5432,6 +5502,9 @@
       <c r="E41" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
       <c r="G41" s="6" t="s">
         <v>347</v>
       </c>
@@ -5455,6 +5528,9 @@
       <c r="E42" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
       <c r="G42" s="6" t="s">
         <v>348</v>
       </c>
@@ -5478,6 +5554,9 @@
       <c r="E43" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
       <c r="G43" s="6" t="s">
         <v>344</v>
       </c>
@@ -5501,6 +5580,9 @@
       <c r="E44" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="F44" s="8">
+        <v>2</v>
+      </c>
       <c r="G44" s="6" t="s">
         <v>349</v>
       </c>
@@ -5524,6 +5606,9 @@
       <c r="E45" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
       <c r="G45" s="6" t="s">
         <v>350</v>
       </c>
@@ -5547,6 +5632,9 @@
       <c r="E46" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="F46" s="8">
+        <v>3</v>
+      </c>
       <c r="G46" s="6" t="s">
         <v>351</v>
       </c>
@@ -5570,6 +5658,9 @@
       <c r="E47" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
       <c r="G47" s="6" t="s">
         <v>352</v>
       </c>
@@ -5593,6 +5684,9 @@
       <c r="E48" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="F48" s="8">
+        <v>2</v>
+      </c>
       <c r="G48" s="6" t="s">
         <v>353</v>
       </c>
@@ -5616,6 +5710,9 @@
       <c r="E49" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
       <c r="H49" s="6" t="s">
         <v>533</v>
       </c>
@@ -5636,6 +5733,9 @@
       <c r="E50" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
       <c r="H50" s="6" t="s">
         <v>534</v>
       </c>
@@ -5656,6 +5756,9 @@
       <c r="E51" s="10" t="s">
         <v>70</v>
       </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
       <c r="G51" s="6" t="s">
         <v>354</v>
       </c>
@@ -5679,6 +5782,9 @@
       <c r="E52" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
       <c r="G52" s="6" t="s">
         <v>355</v>
       </c>
@@ -5702,6 +5808,9 @@
       <c r="E53" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="F53" s="8">
+        <v>2</v>
+      </c>
       <c r="H53" s="6" t="s">
         <v>537</v>
       </c>
@@ -5722,6 +5831,9 @@
       <c r="E54" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="F54" s="8">
+        <v>2</v>
+      </c>
       <c r="G54" s="6" t="s">
         <v>356</v>
       </c>
@@ -5745,6 +5857,9 @@
       <c r="E55" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="F55" s="8">
+        <v>1</v>
+      </c>
       <c r="G55" s="6" t="s">
         <v>357</v>
       </c>
@@ -5768,6 +5883,9 @@
       <c r="E56" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="F56" s="8">
+        <v>1</v>
+      </c>
       <c r="H56" s="6" t="s">
         <v>540</v>
       </c>
@@ -5788,6 +5906,9 @@
       <c r="E57" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="F57" s="8">
+        <v>2</v>
+      </c>
       <c r="H57" s="6" t="s">
         <v>541</v>
       </c>
@@ -5808,6 +5929,9 @@
       <c r="E58" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="F58" s="8">
+        <v>2</v>
+      </c>
       <c r="G58" s="6" t="s">
         <v>358</v>
       </c>
@@ -5830,6 +5954,9 @@
       </c>
       <c r="E59" s="10" t="s">
         <v>78</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>543</v>
@@ -5851,6 +5978,9 @@
       <c r="E60" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
       <c r="G60" s="6" t="s">
         <v>359</v>
       </c>
@@ -5874,6 +6004,9 @@
       <c r="E61" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
       <c r="G61" s="6" t="s">
         <v>323</v>
       </c>
@@ -5897,6 +6030,9 @@
       <c r="E62" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="F62" s="8">
+        <v>2</v>
+      </c>
       <c r="H62" s="6" t="s">
         <v>546</v>
       </c>
@@ -5917,6 +6053,9 @@
       <c r="E63" s="10" t="s">
         <v>82</v>
       </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
       <c r="G63" s="6" t="s">
         <v>348</v>
       </c>
@@ -5940,6 +6079,9 @@
       <c r="E64" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
       <c r="G64" s="6" t="s">
         <v>360</v>
       </c>
@@ -5963,6 +6105,9 @@
       <c r="E65" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
       <c r="G65" s="6" t="s">
         <v>361</v>
       </c>
@@ -5986,6 +6131,9 @@
       <c r="E66" s="10" t="s">
         <v>85</v>
       </c>
+      <c r="F66" s="8">
+        <v>2</v>
+      </c>
       <c r="G66" s="6" t="s">
         <v>362</v>
       </c>
@@ -6008,6 +6156,9 @@
       </c>
       <c r="E67" s="10" t="s">
         <v>86</v>
+      </c>
+      <c r="F67" s="8">
+        <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>363</v>
@@ -6032,6 +6183,9 @@
       <c r="E68" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
       <c r="H68" s="6" t="s">
         <v>552</v>
       </c>
@@ -6051,6 +6205,9 @@
       </c>
       <c r="E69" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>364</v>
@@ -6075,6 +6232,9 @@
       <c r="E70" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="F70" s="8">
+        <v>2</v>
+      </c>
       <c r="H70" s="6" t="s">
         <v>554</v>
       </c>
@@ -6094,6 +6254,9 @@
       </c>
       <c r="E71" s="10" t="s">
         <v>90</v>
+      </c>
+      <c r="F71" s="8">
+        <v>3</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>365</v>
@@ -6118,6 +6281,9 @@
       <c r="E72" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="F72" s="8">
+        <v>1</v>
+      </c>
       <c r="G72" s="6" t="s">
         <v>366</v>
       </c>
@@ -6141,6 +6307,9 @@
       <c r="E73" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="F73" s="8">
+        <v>3</v>
+      </c>
       <c r="H73" s="6" t="s">
         <v>557</v>
       </c>
@@ -6161,6 +6330,9 @@
       <c r="E74" s="10" t="s">
         <v>93</v>
       </c>
+      <c r="F74" s="8">
+        <v>1</v>
+      </c>
       <c r="H74" s="6" t="s">
         <v>558</v>
       </c>
@@ -6181,6 +6353,9 @@
       <c r="E75" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="F75" s="8">
+        <v>1</v>
+      </c>
       <c r="G75" s="6" t="s">
         <v>367</v>
       </c>
@@ -6204,6 +6379,9 @@
       <c r="E76" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="F76" s="8">
+        <v>1</v>
+      </c>
       <c r="G76" s="6" t="s">
         <v>368</v>
       </c>
@@ -6227,6 +6405,9 @@
       <c r="E77" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="F77" s="8">
+        <v>3</v>
+      </c>
       <c r="H77" s="6" t="s">
         <v>561</v>
       </c>
@@ -6246,6 +6427,9 @@
       </c>
       <c r="E78" s="10" t="s">
         <v>97</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>369</v>
@@ -6270,6 +6454,9 @@
       <c r="E79" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="F79" s="8">
+        <v>3</v>
+      </c>
       <c r="G79" s="6" t="s">
         <v>370</v>
       </c>
@@ -6293,6 +6480,9 @@
       <c r="E80" s="10" t="s">
         <v>99</v>
       </c>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
       <c r="G80" s="6" t="s">
         <v>371</v>
       </c>
@@ -6316,6 +6506,9 @@
       <c r="E81" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="F81" s="8">
+        <v>2</v>
+      </c>
       <c r="H81" s="6" t="s">
         <v>565</v>
       </c>
@@ -6336,6 +6529,9 @@
       <c r="E82" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="F82" s="8">
+        <v>2</v>
+      </c>
       <c r="G82" s="6" t="s">
         <v>372</v>
       </c>
@@ -6359,6 +6555,9 @@
       <c r="E83" s="10" t="s">
         <v>102</v>
       </c>
+      <c r="F83" s="8">
+        <v>2</v>
+      </c>
       <c r="G83" s="6" t="s">
         <v>323</v>
       </c>
@@ -6382,6 +6581,9 @@
       <c r="E84" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="F84" s="8">
+        <v>1</v>
+      </c>
       <c r="G84" s="6" t="s">
         <v>373</v>
       </c>
@@ -6405,6 +6607,9 @@
       <c r="E85" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="F85" s="8">
+        <v>2</v>
+      </c>
       <c r="G85" s="6" t="s">
         <v>374</v>
       </c>
@@ -6428,6 +6633,9 @@
       <c r="E86" s="10" t="s">
         <v>105</v>
       </c>
+      <c r="F86" s="8">
+        <v>1</v>
+      </c>
       <c r="G86" s="6" t="s">
         <v>375</v>
       </c>
@@ -6451,6 +6659,9 @@
       <c r="E87" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="F87" s="8">
+        <v>2</v>
+      </c>
       <c r="G87" s="6" t="s">
         <v>344</v>
       </c>
@@ -6474,6 +6685,9 @@
       <c r="E88" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="F88" s="8">
+        <v>1</v>
+      </c>
       <c r="G88" s="6" t="s">
         <v>376</v>
       </c>
@@ -6497,6 +6711,9 @@
       <c r="E89" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="F89" s="8">
+        <v>1</v>
+      </c>
       <c r="H89" s="6" t="s">
         <v>573</v>
       </c>
@@ -6517,6 +6734,9 @@
       <c r="E90" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="F90" s="8">
+        <v>1</v>
+      </c>
       <c r="H90" s="6" t="s">
         <v>574</v>
       </c>
@@ -6537,6 +6757,9 @@
       <c r="E91" s="10" t="s">
         <v>110</v>
       </c>
+      <c r="F91" s="8">
+        <v>2</v>
+      </c>
       <c r="G91" s="6" t="s">
         <v>377</v>
       </c>
@@ -6560,6 +6783,9 @@
       <c r="E92" s="10" t="s">
         <v>111</v>
       </c>
+      <c r="F92" s="8">
+        <v>1</v>
+      </c>
       <c r="G92" s="6" t="s">
         <v>349</v>
       </c>
@@ -6583,6 +6809,9 @@
       <c r="E93" s="10" t="s">
         <v>112</v>
       </c>
+      <c r="F93" s="8">
+        <v>2</v>
+      </c>
       <c r="H93" s="6" t="s">
         <v>577</v>
       </c>
@@ -6603,6 +6832,9 @@
       <c r="E94" s="10" t="s">
         <v>113</v>
       </c>
+      <c r="F94" s="8">
+        <v>2</v>
+      </c>
       <c r="G94" s="6" t="s">
         <v>348</v>
       </c>
@@ -6626,6 +6858,9 @@
       <c r="E95" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="F95" s="8">
+        <v>1</v>
+      </c>
       <c r="G95" s="6" t="s">
         <v>378</v>
       </c>
@@ -6648,6 +6883,9 @@
       </c>
       <c r="E96" s="10" t="s">
         <v>115</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>379</v>
@@ -6672,6 +6910,9 @@
       <c r="E97" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="F97" s="8">
+        <v>2</v>
+      </c>
       <c r="G97" s="6" t="s">
         <v>380</v>
       </c>
@@ -6695,6 +6936,9 @@
       <c r="E98" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="F98" s="8">
+        <v>1</v>
+      </c>
       <c r="G98" s="6" t="s">
         <v>381</v>
       </c>
@@ -6718,6 +6962,9 @@
       <c r="E99" s="10" t="s">
         <v>118</v>
       </c>
+      <c r="F99" s="8">
+        <v>1</v>
+      </c>
       <c r="G99" s="6" t="s">
         <v>382</v>
       </c>
@@ -6741,6 +6988,9 @@
       <c r="E100" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
       <c r="H100" s="6" t="s">
         <v>584</v>
       </c>
@@ -6761,6 +7011,9 @@
       <c r="E101" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="F101" s="8">
+        <v>1</v>
+      </c>
       <c r="H101" s="6" t="s">
         <v>585</v>
       </c>
@@ -6781,6 +7034,9 @@
       <c r="E102" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="F102" s="8">
+        <v>1</v>
+      </c>
       <c r="G102" s="6" t="s">
         <v>383</v>
       </c>
@@ -6804,6 +7060,9 @@
       <c r="E103" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="F103" s="8">
+        <v>3</v>
+      </c>
       <c r="H103" s="6" t="s">
         <v>587</v>
       </c>
@@ -6824,6 +7083,9 @@
       <c r="E104" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="F104" s="8">
+        <v>1</v>
+      </c>
       <c r="G104" s="6" t="s">
         <v>384</v>
       </c>
@@ -6847,6 +7109,9 @@
       <c r="E105" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="F105" s="8">
+        <v>3</v>
+      </c>
       <c r="G105" s="6" t="s">
         <v>385</v>
       </c>
@@ -6870,6 +7135,9 @@
       <c r="E106" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="F106" s="8">
+        <v>3</v>
+      </c>
       <c r="G106" s="6" t="s">
         <v>386</v>
       </c>
@@ -6893,6 +7161,9 @@
       <c r="E107" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="F107" s="8">
+        <v>1</v>
+      </c>
       <c r="G107" s="6" t="s">
         <v>387</v>
       </c>
@@ -6916,6 +7187,9 @@
       <c r="E108" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="F108" s="8">
+        <v>1</v>
+      </c>
       <c r="G108" s="6" t="s">
         <v>388</v>
       </c>
@@ -6939,6 +7213,9 @@
       <c r="E109" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="F109" s="8">
+        <v>2</v>
+      </c>
       <c r="G109" s="6" t="s">
         <v>324</v>
       </c>
@@ -6962,6 +7239,9 @@
       <c r="E110" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="F110" s="8">
+        <v>1</v>
+      </c>
       <c r="G110" s="6" t="s">
         <v>389</v>
       </c>
@@ -6985,6 +7265,9 @@
       <c r="E111" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
       <c r="G111" s="6" t="s">
         <v>390</v>
       </c>
@@ -7007,6 +7290,9 @@
       </c>
       <c r="E112" s="10" t="s">
         <v>131</v>
+      </c>
+      <c r="F112" s="8">
+        <v>1</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>385</v>
@@ -7031,6 +7317,9 @@
       <c r="E113" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="F113" s="8">
+        <v>1</v>
+      </c>
       <c r="G113" s="6" t="s">
         <v>391</v>
       </c>
@@ -7054,6 +7343,9 @@
       <c r="E114" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="F114" s="8">
+        <v>1</v>
+      </c>
       <c r="G114" s="6" t="s">
         <v>392</v>
       </c>
@@ -7077,6 +7369,9 @@
       <c r="E115" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="F115" s="8">
+        <v>3</v>
+      </c>
       <c r="G115" s="6" t="s">
         <v>393</v>
       </c>
@@ -7100,6 +7395,9 @@
       <c r="E116" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="F116" s="8">
+        <v>2</v>
+      </c>
       <c r="G116" s="6" t="s">
         <v>394</v>
       </c>
@@ -7123,6 +7421,9 @@
       <c r="E117" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="F117" s="11">
+        <v>3</v>
+      </c>
       <c r="G117" s="6" t="s">
         <v>372</v>
       </c>
@@ -7146,6 +7447,9 @@
       <c r="E118" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="F118" s="8">
+        <v>3</v>
+      </c>
       <c r="H118" s="6" t="s">
         <v>602</v>
       </c>
@@ -7166,6 +7470,9 @@
       <c r="E119" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="F119" s="8">
+        <v>2</v>
+      </c>
       <c r="G119" s="6" t="s">
         <v>387</v>
       </c>
@@ -7183,12 +7490,15 @@
       <c r="C120" s="6">
         <v>0</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="12">
         <v>43718.903182870366</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="F120" s="8">
+        <v>3</v>
+      </c>
       <c r="H120" s="6" t="s">
         <v>604</v>
       </c>
@@ -7209,6 +7519,9 @@
       <c r="E121" s="10" t="s">
         <v>140</v>
       </c>
+      <c r="F121" s="8">
+        <v>3</v>
+      </c>
       <c r="G121" s="6" t="s">
         <v>323</v>
       </c>
@@ -7232,6 +7545,9 @@
       <c r="E122" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="F122" s="8">
+        <v>3</v>
+      </c>
       <c r="G122" s="6" t="s">
         <v>395</v>
       </c>
@@ -7255,6 +7571,9 @@
       <c r="E123" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="F123" s="8">
+        <v>3</v>
+      </c>
       <c r="H123" s="6" t="s">
         <v>607</v>
       </c>
@@ -7274,6 +7593,9 @@
       </c>
       <c r="E124" s="10" t="s">
         <v>143</v>
+      </c>
+      <c r="F124" s="8">
+        <v>2</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>396</v>
@@ -7298,6 +7620,9 @@
       <c r="E125" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="F125" s="8">
+        <v>3</v>
+      </c>
       <c r="G125" s="6" t="s">
         <v>349</v>
       </c>
@@ -7321,6 +7646,9 @@
       <c r="E126" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="F126" s="8">
+        <v>2</v>
+      </c>
       <c r="H126" s="6" t="s">
         <v>610</v>
       </c>
@@ -7341,6 +7669,9 @@
       <c r="E127" s="10" t="s">
         <v>146</v>
       </c>
+      <c r="F127" s="8">
+        <v>3</v>
+      </c>
       <c r="G127" s="6" t="s">
         <v>323</v>
       </c>
@@ -7364,6 +7695,9 @@
       <c r="E128" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="F128" s="8">
+        <v>2</v>
+      </c>
       <c r="H128" s="6" t="s">
         <v>612</v>
       </c>
@@ -7384,6 +7718,9 @@
       <c r="E129" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="F129" s="8">
+        <v>3</v>
+      </c>
       <c r="G129" s="6" t="s">
         <v>397</v>
       </c>
@@ -7407,6 +7744,9 @@
       <c r="E130" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="F130" s="8">
+        <v>1</v>
+      </c>
       <c r="G130" s="6" t="s">
         <v>398</v>
       </c>
@@ -7429,6 +7769,9 @@
       </c>
       <c r="E131" s="10" t="s">
         <v>150</v>
+      </c>
+      <c r="F131" s="8">
+        <v>1</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>615</v>
@@ -7473,6 +7816,9 @@
       <c r="E133" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="F133" s="8">
+        <v>3</v>
+      </c>
       <c r="G133" s="6" t="s">
         <v>400</v>
       </c>
@@ -7496,6 +7842,9 @@
       <c r="E134" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="F134" s="8">
+        <v>1</v>
+      </c>
       <c r="H134" s="6" t="s">
         <v>618</v>
       </c>
@@ -7516,6 +7865,9 @@
       <c r="E135" s="10" t="s">
         <v>154</v>
       </c>
+      <c r="F135" s="8">
+        <v>2</v>
+      </c>
       <c r="G135" s="6" t="s">
         <v>401</v>
       </c>
@@ -7539,6 +7891,9 @@
       <c r="E136" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="F136" s="8">
+        <v>1</v>
+      </c>
       <c r="G136" s="6" t="s">
         <v>402</v>
       </c>
@@ -7561,6 +7916,9 @@
       </c>
       <c r="E137" s="10" t="s">
         <v>156</v>
+      </c>
+      <c r="F137" s="8">
+        <v>3</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>621</v>
@@ -7582,6 +7940,9 @@
       <c r="E138" s="10" t="s">
         <v>157</v>
       </c>
+      <c r="F138" s="8">
+        <v>2</v>
+      </c>
       <c r="G138" s="6" t="s">
         <v>403</v>
       </c>
@@ -7604,6 +7965,9 @@
       </c>
       <c r="E139" s="10" t="s">
         <v>158</v>
+      </c>
+      <c r="F139" s="8">
+        <v>1</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>324</v>
@@ -7628,6 +7992,9 @@
       <c r="E140" s="10" t="s">
         <v>159</v>
       </c>
+      <c r="F140" s="8">
+        <v>1</v>
+      </c>
       <c r="G140" s="6" t="s">
         <v>404</v>
       </c>
@@ -7651,6 +8018,9 @@
       <c r="E141" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="F141" s="8">
+        <v>2</v>
+      </c>
       <c r="G141" s="6" t="s">
         <v>405</v>
       </c>
@@ -7674,6 +8044,9 @@
       <c r="E142" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="F142" s="8">
+        <v>3</v>
+      </c>
       <c r="H142" s="6" t="s">
         <v>626</v>
       </c>
@@ -7694,6 +8067,9 @@
       <c r="E143" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="F143" s="8">
+        <v>3</v>
+      </c>
       <c r="H143" s="6" t="s">
         <v>627</v>
       </c>
@@ -7714,6 +8090,9 @@
       <c r="E144" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="F144" s="8">
+        <v>1</v>
+      </c>
       <c r="G144" s="6" t="s">
         <v>324</v>
       </c>
@@ -7737,6 +8116,9 @@
       <c r="E145" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="F145" s="8">
+        <v>1</v>
+      </c>
       <c r="G145" s="6" t="s">
         <v>406</v>
       </c>
@@ -7760,6 +8142,9 @@
       <c r="E146" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="F146" s="8">
+        <v>1</v>
+      </c>
       <c r="G146" s="6" t="s">
         <v>349</v>
       </c>
@@ -7783,6 +8168,9 @@
       <c r="E147" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="F147" s="8">
+        <v>2</v>
+      </c>
       <c r="H147" s="6" t="s">
         <v>631</v>
       </c>
@@ -7802,6 +8190,9 @@
       </c>
       <c r="E148" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="F148" s="8">
+        <v>1</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>407</v>
@@ -7826,6 +8217,9 @@
       <c r="E149" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="F149" s="8">
+        <v>2</v>
+      </c>
       <c r="G149" s="6" t="s">
         <v>408</v>
       </c>
@@ -7849,6 +8243,9 @@
       <c r="E150" s="10" t="s">
         <v>169</v>
       </c>
+      <c r="F150" s="8">
+        <v>3</v>
+      </c>
       <c r="H150" s="6" t="s">
         <v>634</v>
       </c>
@@ -8147,7 +8544,7 @@
         <v>181</v>
       </c>
       <c r="F162" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>646</v>
@@ -8170,7 +8567,7 @@
         <v>182</v>
       </c>
       <c r="F163" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>647</v>
@@ -8245,7 +8642,7 @@
         <v>185</v>
       </c>
       <c r="F166" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="6" t="s">
         <v>323</v>
@@ -8270,6 +8667,9 @@
       <c r="E167" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="F167" s="8">
+        <v>1</v>
+      </c>
       <c r="G167" s="6" t="s">
         <v>418</v>
       </c>
@@ -8293,6 +8693,9 @@
       <c r="E168" s="10" t="s">
         <v>187</v>
       </c>
+      <c r="F168" s="8">
+        <v>1</v>
+      </c>
       <c r="G168" s="6" t="s">
         <v>369</v>
       </c>
@@ -8316,6 +8719,9 @@
       <c r="E169" s="10" t="s">
         <v>188</v>
       </c>
+      <c r="F169" s="8">
+        <v>1</v>
+      </c>
       <c r="H169" s="6" t="s">
         <v>653</v>
       </c>
@@ -8336,6 +8742,9 @@
       <c r="E170" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="F170" s="8">
+        <v>1</v>
+      </c>
       <c r="H170" s="6" t="s">
         <v>654</v>
       </c>
@@ -8356,6 +8765,9 @@
       <c r="E171" s="10" t="s">
         <v>190</v>
       </c>
+      <c r="F171" s="8">
+        <v>2</v>
+      </c>
       <c r="G171" s="6" t="s">
         <v>419</v>
       </c>
@@ -8379,6 +8791,9 @@
       <c r="E172" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="F172" s="8">
+        <v>2</v>
+      </c>
       <c r="G172" s="6" t="s">
         <v>420</v>
       </c>
@@ -8402,6 +8817,9 @@
       <c r="E173" s="10" t="s">
         <v>192</v>
       </c>
+      <c r="F173" s="8">
+        <v>1</v>
+      </c>
       <c r="H173" s="6" t="s">
         <v>657</v>
       </c>
@@ -8422,6 +8840,9 @@
       <c r="E174" s="10" t="s">
         <v>193</v>
       </c>
+      <c r="F174" s="8">
+        <v>3</v>
+      </c>
       <c r="H174" s="6" t="s">
         <v>658</v>
       </c>
@@ -8442,6 +8863,9 @@
       <c r="E175" s="10" t="s">
         <v>194</v>
       </c>
+      <c r="F175" s="8">
+        <v>1</v>
+      </c>
       <c r="H175" s="6" t="s">
         <v>659</v>
       </c>
@@ -8462,6 +8886,9 @@
       <c r="E176" s="10" t="s">
         <v>195</v>
       </c>
+      <c r="F176" s="8">
+        <v>3</v>
+      </c>
       <c r="G176" s="6" t="s">
         <v>421</v>
       </c>
@@ -8485,6 +8912,9 @@
       <c r="E177" s="10" t="s">
         <v>196</v>
       </c>
+      <c r="F177" s="8">
+        <v>2</v>
+      </c>
       <c r="G177" s="6" t="s">
         <v>338</v>
       </c>
@@ -8508,6 +8938,9 @@
       <c r="E178" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="F178" s="8">
+        <v>3</v>
+      </c>
       <c r="H178" s="6" t="s">
         <v>661</v>
       </c>
@@ -8527,6 +8960,9 @@
       </c>
       <c r="E179" s="10" t="s">
         <v>198</v>
+      </c>
+      <c r="F179" s="8">
+        <v>1</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>422</v>
@@ -8551,6 +8987,9 @@
       <c r="E180" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="F180" s="8">
+        <v>3</v>
+      </c>
       <c r="G180" s="6" t="s">
         <v>423</v>
       </c>
@@ -8574,6 +9013,9 @@
       <c r="E181" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="F181" s="8">
+        <v>2</v>
+      </c>
       <c r="G181" s="6" t="s">
         <v>424</v>
       </c>
@@ -8597,6 +9039,9 @@
       <c r="E182" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="F182" s="8">
+        <v>3</v>
+      </c>
       <c r="G182" s="6" t="s">
         <v>425</v>
       </c>
@@ -8620,6 +9065,9 @@
       <c r="E183" s="10" t="s">
         <v>202</v>
       </c>
+      <c r="F183" s="8">
+        <v>2</v>
+      </c>
       <c r="H183" s="6" t="s">
         <v>666</v>
       </c>
@@ -8640,6 +9088,9 @@
       <c r="E184" s="10" t="s">
         <v>203</v>
       </c>
+      <c r="F184" s="8">
+        <v>3</v>
+      </c>
       <c r="G184" s="6" t="s">
         <v>426</v>
       </c>
@@ -8663,6 +9114,9 @@
       <c r="E185" s="10" t="s">
         <v>204</v>
       </c>
+      <c r="F185" s="8">
+        <v>3</v>
+      </c>
       <c r="G185" s="6" t="s">
         <v>427</v>
       </c>
@@ -8686,6 +9140,9 @@
       <c r="E186" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="F186" s="8">
+        <v>1</v>
+      </c>
       <c r="G186" s="6" t="s">
         <v>428</v>
       </c>
@@ -8709,6 +9166,9 @@
       <c r="E187" s="10" t="s">
         <v>206</v>
       </c>
+      <c r="F187" s="8">
+        <v>1</v>
+      </c>
       <c r="G187" s="6" t="s">
         <v>429</v>
       </c>
@@ -8732,6 +9192,9 @@
       <c r="E188" s="10" t="s">
         <v>207</v>
       </c>
+      <c r="F188" s="8">
+        <v>2</v>
+      </c>
       <c r="G188" s="6" t="s">
         <v>430</v>
       </c>
@@ -8755,6 +9218,9 @@
       <c r="E189" s="10" t="s">
         <v>208</v>
       </c>
+      <c r="F189" s="8">
+        <v>2</v>
+      </c>
       <c r="G189" s="6" t="s">
         <v>323</v>
       </c>
@@ -8778,6 +9244,9 @@
       <c r="E190" s="10" t="s">
         <v>209</v>
       </c>
+      <c r="F190" s="8">
+        <v>3</v>
+      </c>
       <c r="H190" s="6" t="s">
         <v>672</v>
       </c>
@@ -8798,6 +9267,9 @@
       <c r="E191" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="F191" s="8">
+        <v>2</v>
+      </c>
       <c r="G191" s="6" t="s">
         <v>323</v>
       </c>
@@ -8821,6 +9293,9 @@
       <c r="E192" s="10" t="s">
         <v>211</v>
       </c>
+      <c r="F192" s="8">
+        <v>1</v>
+      </c>
       <c r="G192" s="6" t="s">
         <v>365</v>
       </c>
@@ -8844,6 +9319,9 @@
       <c r="E193" s="10" t="s">
         <v>212</v>
       </c>
+      <c r="F193" s="8">
+        <v>3</v>
+      </c>
       <c r="G193" s="6" t="s">
         <v>431</v>
       </c>
@@ -8867,6 +9345,9 @@
       <c r="E194" s="10" t="s">
         <v>213</v>
       </c>
+      <c r="F194" s="8">
+        <v>3</v>
+      </c>
       <c r="G194" s="6" t="s">
         <v>432</v>
       </c>
@@ -8890,6 +9371,9 @@
       <c r="E195" s="10" t="s">
         <v>214</v>
       </c>
+      <c r="F195" s="8">
+        <v>2</v>
+      </c>
       <c r="H195" s="6" t="s">
         <v>676</v>
       </c>
@@ -8909,6 +9393,9 @@
       </c>
       <c r="E196" s="10" t="s">
         <v>215</v>
+      </c>
+      <c r="F196" s="8">
+        <v>2</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>433</v>
@@ -8933,6 +9420,9 @@
       <c r="E197" s="10" t="s">
         <v>216</v>
       </c>
+      <c r="F197" s="8">
+        <v>2</v>
+      </c>
       <c r="H197" s="6" t="s">
         <v>678</v>
       </c>
@@ -8953,6 +9443,9 @@
       <c r="E198" s="10" t="s">
         <v>217</v>
       </c>
+      <c r="F198" s="8">
+        <v>3</v>
+      </c>
       <c r="G198" s="6" t="s">
         <v>324</v>
       </c>
@@ -8975,6 +9468,9 @@
       </c>
       <c r="E199" s="10" t="s">
         <v>218</v>
+      </c>
+      <c r="F199" s="8">
+        <v>1</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>434</v>
@@ -8999,6 +9495,9 @@
       <c r="E200" s="10" t="s">
         <v>219</v>
       </c>
+      <c r="F200" s="8">
+        <v>1</v>
+      </c>
       <c r="H200" s="6" t="s">
         <v>681</v>
       </c>
@@ -9019,6 +9518,9 @@
       <c r="E201" s="10" t="s">
         <v>220</v>
       </c>
+      <c r="F201" s="8">
+        <v>1</v>
+      </c>
       <c r="G201" s="6" t="s">
         <v>435</v>
       </c>
@@ -9042,6 +9544,9 @@
       <c r="E202" s="10" t="s">
         <v>221</v>
       </c>
+      <c r="F202" s="8">
+        <v>3</v>
+      </c>
       <c r="G202" s="6" t="s">
         <v>436</v>
       </c>
@@ -9065,6 +9570,9 @@
       <c r="E203" s="10" t="s">
         <v>222</v>
       </c>
+      <c r="F203" s="8">
+        <v>1</v>
+      </c>
       <c r="G203" s="6" t="s">
         <v>437</v>
       </c>
@@ -9088,6 +9596,9 @@
       <c r="E204" s="10" t="s">
         <v>223</v>
       </c>
+      <c r="F204" s="8">
+        <v>2</v>
+      </c>
       <c r="G204" s="6" t="s">
         <v>438</v>
       </c>
@@ -9111,6 +9622,9 @@
       <c r="E205" s="10" t="s">
         <v>224</v>
       </c>
+      <c r="F205" s="8">
+        <v>3</v>
+      </c>
       <c r="G205" s="6" t="s">
         <v>377</v>
       </c>
@@ -9134,6 +9648,9 @@
       <c r="E206" s="10" t="s">
         <v>225</v>
       </c>
+      <c r="F206" s="8">
+        <v>2</v>
+      </c>
       <c r="G206" s="6" t="s">
         <v>439</v>
       </c>
@@ -9156,6 +9673,9 @@
       </c>
       <c r="E207" s="10" t="s">
         <v>226</v>
+      </c>
+      <c r="F207" s="8">
+        <v>1</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>688</v>
@@ -9177,6 +9697,9 @@
       <c r="E208" s="10" t="s">
         <v>227</v>
       </c>
+      <c r="F208" s="8">
+        <v>2</v>
+      </c>
       <c r="G208" s="6" t="s">
         <v>440</v>
       </c>
@@ -9200,6 +9723,9 @@
       <c r="E209" s="10" t="s">
         <v>228</v>
       </c>
+      <c r="F209" s="8">
+        <v>3</v>
+      </c>
       <c r="G209" s="6" t="s">
         <v>360</v>
       </c>
@@ -9223,6 +9749,9 @@
       <c r="E210" s="10" t="s">
         <v>229</v>
       </c>
+      <c r="F210" s="8">
+        <v>3</v>
+      </c>
       <c r="G210" s="6" t="s">
         <v>441</v>
       </c>
@@ -9246,6 +9775,9 @@
       <c r="E211" s="10" t="s">
         <v>230</v>
       </c>
+      <c r="F211" s="8">
+        <v>1</v>
+      </c>
       <c r="G211" s="6" t="s">
         <v>442</v>
       </c>
@@ -9269,6 +9801,9 @@
       <c r="E212" s="10" t="s">
         <v>231</v>
       </c>
+      <c r="F212" s="8">
+        <v>2</v>
+      </c>
       <c r="G212" s="6" t="s">
         <v>443</v>
       </c>
@@ -9292,6 +9827,9 @@
       <c r="E213" s="10" t="s">
         <v>232</v>
       </c>
+      <c r="F213" s="8">
+        <v>3</v>
+      </c>
       <c r="G213" s="6" t="s">
         <v>444</v>
       </c>
@@ -9315,6 +9853,9 @@
       <c r="E214" s="10" t="s">
         <v>233</v>
       </c>
+      <c r="F214" s="8">
+        <v>3</v>
+      </c>
       <c r="G214" s="6" t="s">
         <v>445</v>
       </c>
@@ -9338,6 +9879,9 @@
       <c r="E215" s="10" t="s">
         <v>234</v>
       </c>
+      <c r="F215" s="8">
+        <v>1</v>
+      </c>
       <c r="G215" s="6" t="s">
         <v>446</v>
       </c>
@@ -9361,6 +9905,9 @@
       <c r="E216" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="F216" s="8">
+        <v>3</v>
+      </c>
       <c r="H216" s="6" t="s">
         <v>696</v>
       </c>
@@ -9381,6 +9928,9 @@
       <c r="E217" s="10" t="s">
         <v>236</v>
       </c>
+      <c r="F217" s="8">
+        <v>2</v>
+      </c>
       <c r="G217" s="6" t="s">
         <v>358</v>
       </c>
@@ -9404,6 +9954,9 @@
       <c r="E218" s="10" t="s">
         <v>237</v>
       </c>
+      <c r="F218" s="8">
+        <v>2</v>
+      </c>
       <c r="H218" s="6" t="s">
         <v>698</v>
       </c>
@@ -9424,6 +9977,9 @@
       <c r="E219" s="10" t="s">
         <v>238</v>
       </c>
+      <c r="F219" s="8">
+        <v>1</v>
+      </c>
       <c r="G219" s="6" t="s">
         <v>447</v>
       </c>
@@ -9446,6 +10002,9 @@
       </c>
       <c r="E220" s="10" t="s">
         <v>239</v>
+      </c>
+      <c r="F220" s="8">
+        <v>2</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>448</v>
@@ -9470,6 +10029,9 @@
       <c r="E221" s="10" t="s">
         <v>240</v>
       </c>
+      <c r="F221" s="8">
+        <v>3</v>
+      </c>
       <c r="G221" s="6" t="s">
         <v>449</v>
       </c>
@@ -9493,6 +10055,9 @@
       <c r="E222" s="10" t="s">
         <v>241</v>
       </c>
+      <c r="F222" s="8">
+        <v>1</v>
+      </c>
       <c r="G222" s="6" t="s">
         <v>376</v>
       </c>
@@ -9516,6 +10081,9 @@
       <c r="E223" s="10" t="s">
         <v>242</v>
       </c>
+      <c r="F223" s="8">
+        <v>3</v>
+      </c>
       <c r="H223" s="6" t="s">
         <v>703</v>
       </c>
@@ -9536,6 +10104,9 @@
       <c r="E224" s="10" t="s">
         <v>243</v>
       </c>
+      <c r="F224" s="8">
+        <v>3</v>
+      </c>
       <c r="G224" s="6" t="s">
         <v>450</v>
       </c>
@@ -9559,6 +10130,9 @@
       <c r="E225" s="10" t="s">
         <v>244</v>
       </c>
+      <c r="F225" s="8">
+        <v>3</v>
+      </c>
       <c r="G225" s="6" t="s">
         <v>451</v>
       </c>
@@ -9582,6 +10156,9 @@
       <c r="E226" s="10" t="s">
         <v>245</v>
       </c>
+      <c r="F226" s="8">
+        <v>1</v>
+      </c>
       <c r="G226" s="6" t="s">
         <v>452</v>
       </c>
@@ -9605,6 +10182,9 @@
       <c r="E227" s="10" t="s">
         <v>246</v>
       </c>
+      <c r="F227" s="8">
+        <v>1</v>
+      </c>
       <c r="G227" s="6" t="s">
         <v>453</v>
       </c>
@@ -9628,6 +10208,9 @@
       <c r="E228" s="10" t="s">
         <v>247</v>
       </c>
+      <c r="F228" s="8">
+        <v>3</v>
+      </c>
       <c r="G228" s="6" t="s">
         <v>369</v>
       </c>
@@ -9651,6 +10234,9 @@
       <c r="E229" s="10" t="s">
         <v>248</v>
       </c>
+      <c r="F229" s="8">
+        <v>3</v>
+      </c>
       <c r="G229" s="6" t="s">
         <v>454</v>
       </c>
@@ -9674,6 +10260,9 @@
       <c r="E230" s="10" t="s">
         <v>249</v>
       </c>
+      <c r="F230" s="8">
+        <v>1</v>
+      </c>
       <c r="G230" s="6" t="s">
         <v>455</v>
       </c>
@@ -9697,6 +10286,9 @@
       <c r="E231" s="10" t="s">
         <v>250</v>
       </c>
+      <c r="F231" s="8">
+        <v>2</v>
+      </c>
       <c r="G231" s="6" t="s">
         <v>456</v>
       </c>
@@ -9720,6 +10312,9 @@
       <c r="E232" s="10" t="s">
         <v>251</v>
       </c>
+      <c r="F232" s="8">
+        <v>2</v>
+      </c>
       <c r="H232" s="6" t="s">
         <v>712</v>
       </c>
@@ -9740,6 +10335,9 @@
       <c r="E233" s="10" t="s">
         <v>252</v>
       </c>
+      <c r="F233" s="8">
+        <v>3</v>
+      </c>
       <c r="G233" s="6" t="s">
         <v>323</v>
       </c>
@@ -9762,6 +10360,9 @@
       </c>
       <c r="E234" s="10" t="s">
         <v>253</v>
+      </c>
+      <c r="F234" s="8">
+        <v>1</v>
       </c>
       <c r="H234" s="6" t="s">
         <v>714</v>
@@ -9783,6 +10384,9 @@
       <c r="E235" s="10" t="s">
         <v>254</v>
       </c>
+      <c r="F235" s="8">
+        <v>2</v>
+      </c>
       <c r="G235" s="6" t="s">
         <v>457</v>
       </c>
@@ -9806,6 +10410,9 @@
       <c r="E236" s="10" t="s">
         <v>255</v>
       </c>
+      <c r="F236" s="8">
+        <v>1</v>
+      </c>
       <c r="G236" s="6" t="s">
         <v>334</v>
       </c>
@@ -9828,6 +10435,9 @@
       </c>
       <c r="E237" s="10" t="s">
         <v>256</v>
+      </c>
+      <c r="F237" s="8">
+        <v>3</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>716</v>
@@ -9849,6 +10459,9 @@
       <c r="E238" s="10" t="s">
         <v>257</v>
       </c>
+      <c r="F238" s="8">
+        <v>3</v>
+      </c>
       <c r="G238" s="6" t="s">
         <v>458</v>
       </c>
@@ -9872,6 +10485,9 @@
       <c r="E239" s="10" t="s">
         <v>258</v>
       </c>
+      <c r="F239" s="8">
+        <v>2</v>
+      </c>
       <c r="G239" s="6" t="s">
         <v>459</v>
       </c>
@@ -9895,6 +10511,9 @@
       <c r="E240" s="10" t="s">
         <v>259</v>
       </c>
+      <c r="F240" s="8">
+        <v>2</v>
+      </c>
       <c r="G240" s="6" t="s">
         <v>460</v>
       </c>
@@ -9918,6 +10537,9 @@
       <c r="E241" s="10" t="s">
         <v>260</v>
       </c>
+      <c r="F241" s="8">
+        <v>2</v>
+      </c>
       <c r="G241" s="6" t="s">
         <v>461</v>
       </c>
@@ -9941,6 +10563,9 @@
       <c r="E242" s="10" t="s">
         <v>261</v>
       </c>
+      <c r="F242" s="8">
+        <v>1</v>
+      </c>
       <c r="G242" s="6" t="s">
         <v>462</v>
       </c>
@@ -9964,6 +10589,9 @@
       <c r="E243" s="10" t="s">
         <v>262</v>
       </c>
+      <c r="F243" s="8">
+        <v>2</v>
+      </c>
       <c r="H243" s="6" t="s">
         <v>722</v>
       </c>
@@ -9984,6 +10612,9 @@
       <c r="E244" s="10" t="s">
         <v>263</v>
       </c>
+      <c r="F244" s="8">
+        <v>3</v>
+      </c>
       <c r="H244" s="6" t="s">
         <v>723</v>
       </c>
@@ -10004,6 +10635,9 @@
       <c r="E245" s="10" t="s">
         <v>264</v>
       </c>
+      <c r="F245" s="8">
+        <v>2</v>
+      </c>
       <c r="H245" s="6" t="s">
         <v>724</v>
       </c>
@@ -10024,6 +10658,9 @@
       <c r="E246" s="10" t="s">
         <v>265</v>
       </c>
+      <c r="F246" s="8">
+        <v>2</v>
+      </c>
       <c r="H246" s="6" t="s">
         <v>725</v>
       </c>
@@ -10044,6 +10681,9 @@
       <c r="E247" s="10" t="s">
         <v>266</v>
       </c>
+      <c r="F247" s="8">
+        <v>2</v>
+      </c>
       <c r="G247" s="6" t="s">
         <v>463</v>
       </c>
@@ -10067,6 +10707,9 @@
       <c r="E248" s="10" t="s">
         <v>267</v>
       </c>
+      <c r="F248" s="8">
+        <v>2</v>
+      </c>
       <c r="G248" s="6" t="s">
         <v>464</v>
       </c>
@@ -10090,6 +10733,9 @@
       <c r="E249" s="10" t="s">
         <v>268</v>
       </c>
+      <c r="F249" s="8">
+        <v>3</v>
+      </c>
       <c r="G249" s="6" t="s">
         <v>465</v>
       </c>
@@ -10113,6 +10759,9 @@
       <c r="E250" s="10" t="s">
         <v>269</v>
       </c>
+      <c r="F250" s="8">
+        <v>1</v>
+      </c>
       <c r="G250" s="6" t="s">
         <v>349</v>
       </c>
@@ -10136,6 +10785,9 @@
       <c r="E251" s="10" t="s">
         <v>270</v>
       </c>
+      <c r="F251" s="8">
+        <v>1</v>
+      </c>
       <c r="G251" s="6" t="s">
         <v>349</v>
       </c>
@@ -10159,6 +10811,9 @@
       <c r="E252" s="10" t="s">
         <v>271</v>
       </c>
+      <c r="F252" s="8">
+        <v>1</v>
+      </c>
       <c r="G252" s="6" t="s">
         <v>466</v>
       </c>
@@ -10182,6 +10837,9 @@
       <c r="E253" s="10" t="s">
         <v>272</v>
       </c>
+      <c r="F253" s="8">
+        <v>3</v>
+      </c>
       <c r="G253" s="6" t="s">
         <v>376</v>
       </c>
@@ -10205,6 +10863,9 @@
       <c r="E254" s="10" t="s">
         <v>273</v>
       </c>
+      <c r="F254" s="8">
+        <v>2</v>
+      </c>
       <c r="H254" s="6" t="s">
         <v>733</v>
       </c>
@@ -10225,6 +10886,9 @@
       <c r="E255" s="10" t="s">
         <v>274</v>
       </c>
+      <c r="F255" s="8">
+        <v>2</v>
+      </c>
       <c r="H255" s="6" t="s">
         <v>734</v>
       </c>
@@ -10245,6 +10909,9 @@
       <c r="E256" s="10" t="s">
         <v>275</v>
       </c>
+      <c r="F256" s="8">
+        <v>2</v>
+      </c>
       <c r="G256" s="6" t="s">
         <v>382</v>
       </c>
@@ -10268,6 +10935,9 @@
       <c r="E257" s="10" t="s">
         <v>276</v>
       </c>
+      <c r="F257" s="8">
+        <v>1</v>
+      </c>
       <c r="H257" s="6" t="s">
         <v>736</v>
       </c>
@@ -10288,6 +10958,9 @@
       <c r="E258" s="10" t="s">
         <v>277</v>
       </c>
+      <c r="F258" s="8">
+        <v>1</v>
+      </c>
       <c r="G258" s="6" t="s">
         <v>467</v>
       </c>
@@ -10311,6 +10984,9 @@
       <c r="E259" s="10" t="s">
         <v>278</v>
       </c>
+      <c r="F259" s="8">
+        <v>2</v>
+      </c>
       <c r="H259" s="6" t="s">
         <v>738</v>
       </c>
@@ -10331,6 +11007,9 @@
       <c r="E260" s="10" t="s">
         <v>279</v>
       </c>
+      <c r="F260" s="8">
+        <v>2</v>
+      </c>
       <c r="G260" s="6" t="s">
         <v>468</v>
       </c>
@@ -10353,6 +11032,9 @@
       </c>
       <c r="E261" s="10" t="s">
         <v>280</v>
+      </c>
+      <c r="F261" s="8">
+        <v>3</v>
       </c>
       <c r="H261" s="6" t="s">
         <v>740</v>
@@ -10374,6 +11056,9 @@
       <c r="E262" s="10" t="s">
         <v>281</v>
       </c>
+      <c r="F262" s="8">
+        <v>2</v>
+      </c>
       <c r="H262" s="6" t="s">
         <v>741</v>
       </c>
@@ -10394,6 +11079,9 @@
       <c r="E263" s="10" t="s">
         <v>282</v>
       </c>
+      <c r="F263" s="8">
+        <v>2</v>
+      </c>
       <c r="H263" s="6" t="s">
         <v>742</v>
       </c>
@@ -10413,6 +11101,9 @@
       </c>
       <c r="E264" s="10" t="s">
         <v>283</v>
+      </c>
+      <c r="F264" s="8">
+        <v>2</v>
       </c>
       <c r="H264" s="6" t="s">
         <v>743</v>
@@ -10434,6 +11125,9 @@
       <c r="E265" s="10" t="s">
         <v>284</v>
       </c>
+      <c r="F265" s="8">
+        <v>1</v>
+      </c>
       <c r="G265" s="6" t="s">
         <v>469</v>
       </c>
@@ -10456,6 +11150,9 @@
       </c>
       <c r="E266" s="10" t="s">
         <v>285</v>
+      </c>
+      <c r="F266" s="8">
+        <v>1</v>
       </c>
       <c r="H266" s="6" t="s">
         <v>745</v>
@@ -10477,6 +11174,9 @@
       <c r="E267" s="10" t="s">
         <v>286</v>
       </c>
+      <c r="F267" s="8">
+        <v>3</v>
+      </c>
       <c r="H267" s="6" t="s">
         <v>746</v>
       </c>
@@ -10497,6 +11197,9 @@
       <c r="E268" s="10" t="s">
         <v>287</v>
       </c>
+      <c r="F268" s="8">
+        <v>1</v>
+      </c>
       <c r="G268" s="6" t="s">
         <v>424</v>
       </c>
@@ -10520,6 +11223,9 @@
       <c r="E269" s="10" t="s">
         <v>288</v>
       </c>
+      <c r="F269" s="8">
+        <v>3</v>
+      </c>
       <c r="H269" s="6" t="s">
         <v>748</v>
       </c>
@@ -10540,6 +11246,9 @@
       <c r="E270" s="10" t="s">
         <v>289</v>
       </c>
+      <c r="F270" s="8">
+        <v>1</v>
+      </c>
       <c r="H270" s="6" t="s">
         <v>749</v>
       </c>
@@ -10559,6 +11268,9 @@
       </c>
       <c r="E271" s="10" t="s">
         <v>290</v>
+      </c>
+      <c r="F271" s="8">
+        <v>3</v>
       </c>
       <c r="G271" s="6" t="s">
         <v>470</v>
@@ -10661,7 +11373,7 @@
       <c r="E275" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F275" s="8">
+      <c r="F275" s="11">
         <v>2</v>
       </c>
       <c r="G275" s="6" t="s">
@@ -10818,7 +11530,7 @@
         <v>300</v>
       </c>
       <c r="F281" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G281" s="6" t="s">
         <v>477</v>
@@ -10997,7 +11709,7 @@
         <v>307</v>
       </c>
       <c r="F288" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G288" s="6" t="s">
         <v>349</v>
@@ -11271,7 +11983,7 @@
         <v>318</v>
       </c>
       <c r="F299" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G299" s="6" t="s">
         <v>365</v>

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DataSci\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4568B-3D93-4673-9411-C28BEDE70DC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E9290-CFC8-4AC2-8BE1-4803F94E5A73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="1853">
   <si>
     <t>Favorite Count</t>
   </si>
@@ -6439,7 +6439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H451"/>
   <sheetViews>
-    <sheetView topLeftCell="D109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
@@ -17844,8 +17844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17874,7 +17874,9 @@
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>1246</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DataSci\P2_CienciaDados_2019.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graduação\2° Semestre\Ciência dos Dados\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E9290-CFC8-4AC2-8BE1-4803F94E5A73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069A835-E59D-40D5-9758-2FFE97EFD8C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6439,8 +6439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,7 +7743,7 @@
         <v>70</v>
       </c>
       <c r="F51" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>354</v>
@@ -7965,7 +7965,7 @@
         <v>79</v>
       </c>
       <c r="F60" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>359</v>

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graduação\2° Semestre\Ciência dos Dados\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069A835-E59D-40D5-9758-2FFE97EFD8C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699433C3-8EA6-42D6-ADB4-BFD167D0B5FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="1854">
   <si>
     <t>Favorite Count</t>
   </si>
@@ -5962,6 +5962,9 @@
   </si>
   <si>
     <t>Suécia B.M Fortunato</t>
+  </si>
+  <si>
+    <t>Relevância_Prevista</t>
   </si>
 </sst>
 </file>
@@ -6439,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -17844,8 +17847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17875,7 +17878,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1246</v>
+        <v>1853</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graduação\2° Semestre\Ciência dos Dados\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699433C3-8EA6-42D6-ADB4-BFD167D0B5FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E77DC7-3A9E-421E-B2B0-3F3141D6799A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17847,8 +17847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17858,7 +17858,8 @@
     <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="13"/>
     <col min="5" max="5" width="107.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="71.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/depressao.xlsx
+++ b/depressao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graduação\2° Semestre\Ciência dos Dados\P2_CienciaDados_2019.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DataSci\P2_CienciaDados_2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E77DC7-3A9E-421E-B2B0-3F3141D6799A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761F4FC-A3E9-4CD4-BEF9-E8758FE9AD36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6045,7 +6045,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6100,6 +6100,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17847,8 +17850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20631,7 +20634,7 @@
         <v>888</v>
       </c>
       <c r="F111" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>349</v>
@@ -25399,7 +25402,7 @@
       <c r="D301" s="18">
         <v>43718.982928240737</v>
       </c>
-      <c r="E301" s="8" t="s">
+      <c r="E301" s="19" t="s">
         <v>1851</v>
       </c>
       <c r="F301" s="13">
